--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt11-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt11-Fzd7.xlsx
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.064446</v>
+        <v>0.270956</v>
       </c>
       <c r="H2">
-        <v>0.193338</v>
+        <v>0.812868</v>
       </c>
       <c r="I2">
-        <v>0.01302757367656298</v>
+        <v>0.05752762181187367</v>
       </c>
       <c r="J2">
-        <v>0.01302757367656298</v>
+        <v>0.05752762181187366</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.500933333333333</v>
+        <v>0.8077876666666667</v>
       </c>
       <c r="N2">
-        <v>7.5028</v>
+        <v>2.423363</v>
       </c>
       <c r="O2">
-        <v>0.129395502869887</v>
+        <v>0.04902038147436601</v>
       </c>
       <c r="P2">
-        <v>0.129395502869887</v>
+        <v>0.04902038147436601</v>
       </c>
       <c r="Q2">
-        <v>0.1611751496</v>
+        <v>0.2188749150093334</v>
       </c>
       <c r="R2">
-        <v>1.4505763464</v>
+        <v>1.969874235084</v>
       </c>
       <c r="S2">
-        <v>0.001685709447053369</v>
+        <v>0.002820025966531106</v>
       </c>
       <c r="T2">
-        <v>0.001685709447053369</v>
+        <v>0.002820025966531106</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.064446</v>
+        <v>0.270956</v>
       </c>
       <c r="H3">
-        <v>0.193338</v>
+        <v>0.812868</v>
       </c>
       <c r="I3">
-        <v>0.01302757367656298</v>
+        <v>0.05752762181187367</v>
       </c>
       <c r="J3">
-        <v>0.01302757367656298</v>
+        <v>0.05752762181187366</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>23.347821</v>
       </c>
       <c r="O3">
-        <v>0.4026634108880828</v>
+        <v>0.4722854529078861</v>
       </c>
       <c r="P3">
-        <v>0.4026634108880828</v>
+        <v>0.4722854529078861</v>
       </c>
       <c r="Q3">
-        <v>0.501557890722</v>
+        <v>2.108744062292</v>
       </c>
       <c r="R3">
-        <v>4.514021016498</v>
+        <v>18.978696560628</v>
       </c>
       <c r="S3">
-        <v>0.00524572725220065</v>
+        <v>0.02716945892213434</v>
       </c>
       <c r="T3">
-        <v>0.00524572725220065</v>
+        <v>0.02716945892213434</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.064446</v>
+        <v>0.270956</v>
       </c>
       <c r="H4">
-        <v>0.193338</v>
+        <v>0.812868</v>
       </c>
       <c r="I4">
-        <v>0.01302757367656298</v>
+        <v>0.05752762181187367</v>
       </c>
       <c r="J4">
-        <v>0.01302757367656298</v>
+        <v>0.05752762181187366</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.478761333333333</v>
+        <v>5.009781333333333</v>
       </c>
       <c r="N4">
-        <v>13.436284</v>
+        <v>15.029344</v>
       </c>
       <c r="O4">
-        <v>0.2317261188999595</v>
+        <v>0.3040172587389813</v>
       </c>
       <c r="P4">
-        <v>0.2317261188999595</v>
+        <v>0.3040172587389813</v>
       </c>
       <c r="Q4">
-        <v>0.288638252888</v>
+        <v>1.357430310954667</v>
       </c>
       <c r="R4">
-        <v>2.597744275992</v>
+        <v>12.216872798592</v>
       </c>
       <c r="S4">
-        <v>0.003018829086753216</v>
+        <v>0.01748938988501866</v>
       </c>
       <c r="T4">
-        <v>0.003018829086753216</v>
+        <v>0.01748938988501866</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.064446</v>
+        <v>0.270956</v>
       </c>
       <c r="H5">
-        <v>0.193338</v>
+        <v>0.812868</v>
       </c>
       <c r="I5">
-        <v>0.01302757367656298</v>
+        <v>0.05752762181187367</v>
       </c>
       <c r="J5">
-        <v>0.01302757367656298</v>
+        <v>0.05752762181187366</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.565521</v>
+        <v>2.878432333333333</v>
       </c>
       <c r="N5">
-        <v>13.696563</v>
+        <v>8.635297</v>
       </c>
       <c r="O5">
-        <v>0.2362149673420707</v>
+        <v>0.1746769068787666</v>
       </c>
       <c r="P5">
-        <v>0.2362149673420707</v>
+        <v>0.1746769068787666</v>
       </c>
       <c r="Q5">
-        <v>0.2942295663660001</v>
+        <v>0.7799285113106667</v>
       </c>
       <c r="R5">
-        <v>2.648066097294</v>
+        <v>7.019356601796</v>
       </c>
       <c r="S5">
-        <v>0.003077307890555744</v>
+        <v>0.01004874703818956</v>
       </c>
       <c r="T5">
-        <v>0.003077307890555744</v>
+        <v>0.01004874703818955</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>10.517998</v>
       </c>
       <c r="I6">
-        <v>0.7087276886848011</v>
+        <v>0.7443710555244437</v>
       </c>
       <c r="J6">
-        <v>0.7087276886848011</v>
+        <v>0.7443710555244437</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.500933333333333</v>
+        <v>0.8077876666666667</v>
       </c>
       <c r="N6">
-        <v>7.5028</v>
+        <v>2.423363</v>
       </c>
       <c r="O6">
-        <v>0.129395502869887</v>
+        <v>0.04902038147436601</v>
       </c>
       <c r="P6">
-        <v>0.129395502869887</v>
+        <v>0.04902038147436601</v>
       </c>
       <c r="Q6">
-        <v>8.768270599377777</v>
+        <v>2.832103020808222</v>
       </c>
       <c r="R6">
-        <v>78.9144353944</v>
+        <v>25.488927187274</v>
       </c>
       <c r="S6">
-        <v>0.09170617567518255</v>
+        <v>0.03648935310028471</v>
       </c>
       <c r="T6">
-        <v>0.09170617567518254</v>
+        <v>0.03648935310028471</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>10.517998</v>
       </c>
       <c r="I7">
-        <v>0.7087276886848011</v>
+        <v>0.7443710555244437</v>
       </c>
       <c r="J7">
-        <v>0.7087276886848011</v>
+        <v>0.7443710555244437</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>23.347821</v>
       </c>
       <c r="O7">
-        <v>0.4026634108880828</v>
+        <v>0.4722854529078861</v>
       </c>
       <c r="P7">
-        <v>0.4026634108880828</v>
+        <v>0.4722854529078861</v>
       </c>
       <c r="Q7">
         <v>27.28581495359533</v>
@@ -883,10 +883,10 @@
         <v>245.572334582358</v>
       </c>
       <c r="S7">
-        <v>0.2853787085166493</v>
+        <v>0.3515556210898831</v>
       </c>
       <c r="T7">
-        <v>0.2853787085166493</v>
+        <v>0.3515556210898831</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>10.517998</v>
       </c>
       <c r="I8">
-        <v>0.7087276886848011</v>
+        <v>0.7443710555244437</v>
       </c>
       <c r="J8">
-        <v>0.7087276886848011</v>
+        <v>0.7443710555244437</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.478761333333333</v>
+        <v>5.009781333333333</v>
       </c>
       <c r="N8">
-        <v>13.436284</v>
+        <v>15.029344</v>
       </c>
       <c r="O8">
-        <v>0.2317261188999595</v>
+        <v>0.3040172587389813</v>
       </c>
       <c r="P8">
-        <v>0.2317261188999595</v>
+        <v>0.3040172587389813</v>
       </c>
       <c r="Q8">
-        <v>15.70253424882578</v>
+        <v>17.56429001481244</v>
       </c>
       <c r="R8">
-        <v>141.322808239432</v>
+        <v>158.078610133312</v>
       </c>
       <c r="S8">
-        <v>0.1642307166558677</v>
+        <v>0.2263016477851834</v>
       </c>
       <c r="T8">
-        <v>0.1642307166558677</v>
+        <v>0.2263016477851834</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>10.517998</v>
       </c>
       <c r="I9">
-        <v>0.7087276886848011</v>
+        <v>0.7443710555244437</v>
       </c>
       <c r="J9">
-        <v>0.7087276886848011</v>
+        <v>0.7443710555244437</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.565521</v>
+        <v>2.878432333333333</v>
       </c>
       <c r="N9">
-        <v>13.696563</v>
+        <v>8.635297</v>
       </c>
       <c r="O9">
-        <v>0.2362149673420707</v>
+        <v>0.1746769068787666</v>
       </c>
       <c r="P9">
-        <v>0.2362149673420707</v>
+        <v>0.1746769068787666</v>
       </c>
       <c r="Q9">
-        <v>16.00671358231934</v>
+        <v>10.09178184171178</v>
       </c>
       <c r="R9">
-        <v>144.060422240874</v>
+        <v>90.82603657540599</v>
       </c>
       <c r="S9">
-        <v>0.1674120878371015</v>
+        <v>0.1300244335490924</v>
       </c>
       <c r="T9">
-        <v>0.1674120878371015</v>
+        <v>0.1300244335490924</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.478944</v>
+        <v>0.3861913333333333</v>
       </c>
       <c r="H10">
-        <v>1.436832</v>
+        <v>1.158574</v>
       </c>
       <c r="I10">
-        <v>0.09681715307308103</v>
+        <v>0.08199364092702592</v>
       </c>
       <c r="J10">
-        <v>0.09681715307308103</v>
+        <v>0.08199364092702592</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.500933333333333</v>
+        <v>0.8077876666666667</v>
       </c>
       <c r="N10">
-        <v>7.5028</v>
+        <v>2.423363</v>
       </c>
       <c r="O10">
-        <v>0.129395502869887</v>
+        <v>0.04902038147436601</v>
       </c>
       <c r="P10">
-        <v>0.129395502869887</v>
+        <v>0.04902038147436601</v>
       </c>
       <c r="Q10">
-        <v>1.1978070144</v>
+        <v>0.3119605960402222</v>
       </c>
       <c r="R10">
-        <v>10.7802631296</v>
+        <v>2.807645364362</v>
       </c>
       <c r="S10">
-        <v>0.01252770420832214</v>
+        <v>0.004019359556715</v>
       </c>
       <c r="T10">
-        <v>0.01252770420832214</v>
+        <v>0.004019359556715001</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.478944</v>
+        <v>0.3861913333333333</v>
       </c>
       <c r="H11">
-        <v>1.436832</v>
+        <v>1.158574</v>
       </c>
       <c r="I11">
-        <v>0.09681715307308103</v>
+        <v>0.08199364092702592</v>
       </c>
       <c r="J11">
-        <v>0.09681715307308103</v>
+        <v>0.08199364092702592</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>23.347821</v>
       </c>
       <c r="O11">
-        <v>0.4026634108880828</v>
+        <v>0.4722854529078861</v>
       </c>
       <c r="P11">
-        <v>0.4026634108880828</v>
+        <v>0.4722854529078861</v>
       </c>
       <c r="Q11">
-        <v>3.727432927008</v>
+        <v>3.005575374139333</v>
       </c>
       <c r="R11">
-        <v>33.546896343072</v>
+        <v>27.050178367254</v>
       </c>
       <c r="S11">
-        <v>0.03898472508888044</v>
+        <v>0.03872440384078702</v>
       </c>
       <c r="T11">
-        <v>0.03898472508888044</v>
+        <v>0.03872440384078702</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.478944</v>
+        <v>0.3861913333333333</v>
       </c>
       <c r="H12">
-        <v>1.436832</v>
+        <v>1.158574</v>
       </c>
       <c r="I12">
-        <v>0.09681715307308103</v>
+        <v>0.08199364092702592</v>
       </c>
       <c r="J12">
-        <v>0.09681715307308103</v>
+        <v>0.08199364092702592</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.478761333333333</v>
+        <v>5.009781333333333</v>
       </c>
       <c r="N12">
-        <v>13.436284</v>
+        <v>15.029344</v>
       </c>
       <c r="O12">
-        <v>0.2317261188999595</v>
+        <v>0.3040172587389813</v>
       </c>
       <c r="P12">
-        <v>0.2317261188999595</v>
+        <v>0.3040172587389813</v>
       </c>
       <c r="Q12">
-        <v>2.145075868032</v>
+        <v>1.934734132828444</v>
       </c>
       <c r="R12">
-        <v>19.305682812288</v>
+        <v>17.412607195456</v>
       </c>
       <c r="S12">
-        <v>0.02243506312456836</v>
+        <v>0.02492748194866276</v>
       </c>
       <c r="T12">
-        <v>0.02243506312456836</v>
+        <v>0.02492748194866276</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.478944</v>
+        <v>0.3861913333333333</v>
       </c>
       <c r="H13">
-        <v>1.436832</v>
+        <v>1.158574</v>
       </c>
       <c r="I13">
-        <v>0.09681715307308103</v>
+        <v>0.08199364092702592</v>
       </c>
       <c r="J13">
-        <v>0.09681715307308103</v>
+        <v>0.08199364092702592</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.565521</v>
+        <v>2.878432333333333</v>
       </c>
       <c r="N13">
-        <v>13.696563</v>
+        <v>8.635297</v>
       </c>
       <c r="O13">
-        <v>0.2362149673420707</v>
+        <v>0.1746769068787666</v>
       </c>
       <c r="P13">
-        <v>0.2362149673420707</v>
+        <v>0.1746769068787666</v>
       </c>
       <c r="Q13">
-        <v>2.186628889824</v>
+        <v>1.111625620719778</v>
       </c>
       <c r="R13">
-        <v>19.679660008416</v>
+        <v>10.004630586478</v>
       </c>
       <c r="S13">
-        <v>0.0228696606513101</v>
+        <v>0.01432239558086113</v>
       </c>
       <c r="T13">
-        <v>0.02286966065131009</v>
+        <v>0.01432239558086113</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8975026666666667</v>
+        <v>0.546869</v>
       </c>
       <c r="H14">
-        <v>2.692508</v>
+        <v>1.640607</v>
       </c>
       <c r="I14">
-        <v>0.1814275845655548</v>
+        <v>0.1161076817366566</v>
       </c>
       <c r="J14">
-        <v>0.1814275845655548</v>
+        <v>0.1161076817366566</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.500933333333333</v>
+        <v>0.8077876666666667</v>
       </c>
       <c r="N14">
-        <v>7.5028</v>
+        <v>2.423363</v>
       </c>
       <c r="O14">
-        <v>0.129395502869887</v>
+        <v>0.04902038147436601</v>
       </c>
       <c r="P14">
-        <v>0.129395502869887</v>
+        <v>0.04902038147436601</v>
       </c>
       <c r="Q14">
-        <v>2.244594335822222</v>
+        <v>0.4417540334823334</v>
       </c>
       <c r="R14">
-        <v>20.2013490224</v>
+        <v>3.975786301341</v>
       </c>
       <c r="S14">
-        <v>0.02347591353932891</v>
+        <v>0.005691642850835187</v>
       </c>
       <c r="T14">
-        <v>0.02347591353932891</v>
+        <v>0.005691642850835188</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.8975026666666667</v>
+        <v>0.546869</v>
       </c>
       <c r="H15">
-        <v>2.692508</v>
+        <v>1.640607</v>
       </c>
       <c r="I15">
-        <v>0.1814275845655548</v>
+        <v>0.1161076817366566</v>
       </c>
       <c r="J15">
-        <v>0.1814275845655548</v>
+        <v>0.1161076817366566</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>23.347821</v>
       </c>
       <c r="O15">
-        <v>0.4026634108880828</v>
+        <v>0.4722854529078861</v>
       </c>
       <c r="P15">
-        <v>0.4026634108880828</v>
+        <v>0.4722854529078861</v>
       </c>
       <c r="Q15">
-        <v>6.984910536118666</v>
+        <v>4.256066507483</v>
       </c>
       <c r="R15">
-        <v>62.864194825068</v>
+        <v>38.304598567347</v>
       </c>
       <c r="S15">
-        <v>0.07305425003035237</v>
+        <v>0.05483596905508158</v>
       </c>
       <c r="T15">
-        <v>0.07305425003035239</v>
+        <v>0.05483596905508158</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.8975026666666667</v>
+        <v>0.546869</v>
       </c>
       <c r="H16">
-        <v>2.692508</v>
+        <v>1.640607</v>
       </c>
       <c r="I16">
-        <v>0.1814275845655548</v>
+        <v>0.1161076817366566</v>
       </c>
       <c r="J16">
-        <v>0.1814275845655548</v>
+        <v>0.1161076817366566</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.478761333333333</v>
+        <v>5.009781333333333</v>
       </c>
       <c r="N16">
-        <v>13.436284</v>
+        <v>15.029344</v>
       </c>
       <c r="O16">
-        <v>0.2317261188999595</v>
+        <v>0.3040172587389813</v>
       </c>
       <c r="P16">
-        <v>0.2317261188999595</v>
+        <v>0.3040172587389813</v>
       </c>
       <c r="Q16">
-        <v>4.019700240030222</v>
+        <v>2.739694107978667</v>
       </c>
       <c r="R16">
-        <v>36.177302160272</v>
+        <v>24.657246971808</v>
       </c>
       <c r="S16">
-        <v>0.04204151003277021</v>
+        <v>0.03529873912011643</v>
       </c>
       <c r="T16">
-        <v>0.04204151003277022</v>
+        <v>0.03529873912011643</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.8975026666666667</v>
+        <v>0.546869</v>
       </c>
       <c r="H17">
-        <v>2.692508</v>
+        <v>1.640607</v>
       </c>
       <c r="I17">
-        <v>0.1814275845655548</v>
+        <v>0.1161076817366566</v>
       </c>
       <c r="J17">
-        <v>0.1814275845655548</v>
+        <v>0.1161076817366566</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.565521</v>
+        <v>2.878432333333333</v>
       </c>
       <c r="N17">
-        <v>13.696563</v>
+        <v>8.635297</v>
       </c>
       <c r="O17">
-        <v>0.2362149673420707</v>
+        <v>0.1746769068787666</v>
       </c>
       <c r="P17">
-        <v>0.2362149673420707</v>
+        <v>0.1746769068787666</v>
       </c>
       <c r="Q17">
-        <v>4.097567272222667</v>
+        <v>1.574125411697667</v>
       </c>
       <c r="R17">
-        <v>36.87810545000401</v>
+        <v>14.167128705279</v>
       </c>
       <c r="S17">
-        <v>0.0428559109631033</v>
+        <v>0.02028133071062344</v>
       </c>
       <c r="T17">
-        <v>0.0428559109631033</v>
+        <v>0.02028133071062344</v>
       </c>
     </row>
   </sheetData>
